--- a/iara/database/banco - Copia.xlsx
+++ b/iara/database/banco - Copia.xlsx
@@ -1,159 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\. Gustavo\Documentos\GitHub\EcoScoreIARA\iara\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1935" windowWidth="18915" windowHeight="11925"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7095" yWindow="1935" windowWidth="18915" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="empresa" sheetId="1" r:id="rId1"/>
-    <sheet name="login_empresa" sheetId="2" r:id="rId2"/>
-    <sheet name="user" sheetId="3" r:id="rId3"/>
-    <sheet name="login_user" sheetId="4" r:id="rId4"/>
-    <sheet name="score" sheetId="5" r:id="rId5"/>
-    <sheet name="resposta" sheetId="6" r:id="rId6"/>
-    <sheet name="pergunta" sheetId="7" r:id="rId7"/>
-    <sheet name="categoria" sheetId="8" r:id="rId8"/>
+    <sheet name="empresa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login_empresa" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="user" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login_user" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="score" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="resposta" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pergunta" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="categoria" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_banco.xlsxCategorias1" hidden="1">Categorias</definedName>
     <definedName name="_xlcn.WorksheetConnection_banco.xlsxTabela31" hidden="1">Pedidos</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>cod_empresa</t>
-  </si>
-  <si>
-    <t>empresa_nome</t>
-  </si>
-  <si>
-    <t>empresa_cnpj</t>
-  </si>
-  <si>
-    <t>empresa_email</t>
-  </si>
-  <si>
-    <t>empresa_senha</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>teste@gmail.com</t>
-  </si>
-  <si>
-    <t>Teste2</t>
-  </si>
-  <si>
-    <t>cod_login</t>
-  </si>
-  <si>
-    <t>login_auth</t>
-  </si>
-  <si>
-    <t>cod_empresa_FK</t>
-  </si>
-  <si>
-    <t>cod_user</t>
-  </si>
-  <si>
-    <t>user_type</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>iho</t>
-  </si>
-  <si>
-    <t>cod_user_FK</t>
-  </si>
-  <si>
-    <t>cod_score</t>
-  </si>
-  <si>
-    <t>score_total</t>
-  </si>
-  <si>
-    <t>score_data</t>
-  </si>
-  <si>
-    <t>cod_respDiaria</t>
-  </si>
-  <si>
-    <t>cod_pergunta_FK</t>
-  </si>
-  <si>
-    <t>respDiaria_data</t>
-  </si>
-  <si>
-    <t>respDiaria_texto</t>
-  </si>
-  <si>
-    <t>respDiaria_pontuacao</t>
-  </si>
-  <si>
-    <t>cod_pergunta</t>
-  </si>
-  <si>
-    <t>pergunta_texto</t>
-  </si>
-  <si>
-    <t>cod_categoria</t>
-  </si>
-  <si>
-    <t>pergunta_peso</t>
-  </si>
-  <si>
-    <t>categoria_nome</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,30 +82,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,68 +439,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>empresa_nome</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>empresa_cnpj</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>empresa_email</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>empresa_senha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Teste2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>teste@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -534,33 +571,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_login</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>login_auth</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>cod_empresa_FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -569,33 +629,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_user</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>user_type</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>iho</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -604,32 +678,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_login</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>login_auth</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>cod_user_FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,25 +725,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_score</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>cod_user_FK</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>score_total</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>score_data</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -666,28 +766,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_respDiaria</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>cod_pergunta_FK</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>respDiaria_data</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>respDiaria_texto</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>respDiaria_pontuacao</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -696,25 +812,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_pergunta</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>pergunta_texto</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>cod_categoria</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>pergunta_peso</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -723,19 +853,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cod_categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>categoria_nome</t>
+        </is>
       </c>
     </row>
   </sheetData>
